--- a/ConfirmForm/res/001.xlsx
+++ b/ConfirmForm/res/001.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programworkspace\PythonProjects\ConfirmForm\res\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAEC83B-CEB5-4B82-B7CF-A3D3D78513FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23430" windowHeight="10380"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>生产确认单</t>
   </si>
@@ -104,19 +110,18 @@
   </si>
   <si>
     <t xml:space="preserve">  制定人：                                   审核人：              审核人：</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>支架</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,7 +169,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Wingdings"/>
-      <charset val="134"/>
+      <charset val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -173,17 +178,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -191,133 +188,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,192 +216,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -634,255 +338,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,20 +360,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -931,152 +501,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1334,60 +773,60 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:XEX28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:XEX29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="$A27:$XFD27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
     <col min="7" max="16378" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:16378" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="18" customHeight="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:16378" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="7"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="20.1" customHeight="1" spans="1:16378">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:16378" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -17761,270 +17200,281 @@
       <c r="XEW3" s="2"/>
       <c r="XEX3" s="2"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:16378" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
-    <row r="5" s="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:16378" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="7" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="8"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="21" customHeight="1" spans="1:6">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:16378" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="38"/>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:16378" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
-    <row r="8" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A8" s="19">
+    <row r="8" spans="1:16378" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="21" t="s">
+    <row r="9" spans="1:16378" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="21" t="s">
+    <row r="10" spans="1:16378" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="21" t="s">
+    <row r="11" spans="1:16378" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:16378" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="21" t="s">
+    <row r="13" spans="1:16378" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="21" t="s">
+    <row r="14" spans="1:16378" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A15" s="25"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29" t="s">
+    <row r="15" spans="1:16378" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
+    <row r="16" spans="1:16378" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="18.75" customHeight="1" spans="1:6">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="21" t="s">
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A20" s="36">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>3</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A21" s="36">
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>4</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A22" s="36">
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>5</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B23" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="20.1" customHeight="1" spans="1:6">
-      <c r="A23" s="36">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>6</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
-    <row r="24" ht="110" customHeight="1" spans="1:6">
-      <c r="A24" s="40" t="s">
+    <row r="25" spans="1:6" ht="109.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="60" customHeight="1" spans="1:6">
-      <c r="A25" s="40" t="s">
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
     </row>
-    <row r="26" ht="24" hidden="1" customHeight="1" spans="1:6">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
+    <row r="27" spans="1:6" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
-    <row r="27" ht="60" customHeight="1" spans="1:6">
-      <c r="A27" s="42" t="s">
+    <row r="28" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="44" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="44"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A3:F3"/>
@@ -18040,26 +17490,26 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="D20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A8:A19"/>
-    <mergeCell ref="B8:B19"/>
-    <mergeCell ref="C15:C18"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.393055555555556" right="0.393055555555556" top="0.393055555555556" bottom="0.393055555555556" header="0.511805555555556" footer="0.236111111111111"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
-  <headerFooter/>
+  <pageMargins left="0.39305555555555599" right="0.39305555555555599" top="0.39305555555555599" bottom="0.39305555555555599" header="0.51180555555555596" footer="0.23611111111111099"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>